--- a/data/trans_dic/P15A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.02739891883451766</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02287207848248698</v>
+        <v>0.02287207848248697</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04786757839635807</v>
+        <v>0.04680787249663568</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02901799232284596</v>
+        <v>0.0289784376166557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02551893548230937</v>
+        <v>0.02519488290254748</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003692294060030278</v>
+        <v>0.003660390376551355</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01203227476059114</v>
+        <v>0.01089448474955101</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009766502692710377</v>
+        <v>0.009308657932292953</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004533683698948142</v>
+        <v>0.004793697876044081</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.009435813380159965</v>
+        <v>0.006546509811866519</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03407514804274621</v>
+        <v>0.03442562897069162</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02269765484736789</v>
+        <v>0.02326016235509908</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01653948107278948</v>
+        <v>0.01780758004180554</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01001342634319298</v>
+        <v>0.009673418375562614</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09603593320807166</v>
+        <v>0.09488585325198796</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06883502121212631</v>
+        <v>0.07010748233169221</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06443644220316734</v>
+        <v>0.06608713678140796</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05936125894833779</v>
+        <v>0.05844519899734164</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03869026702457674</v>
+        <v>0.04041197669996287</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03983634897201068</v>
+        <v>0.03787137903154519</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02752781447101612</v>
+        <v>0.02742507819199624</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07741693727975893</v>
+        <v>0.0672200141249384</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06187368957285112</v>
+        <v>0.06216549251766823</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04798821456678561</v>
+        <v>0.04664486501945121</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04054157640675801</v>
+        <v>0.04257706254082506</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04667734161209364</v>
+        <v>0.05088530453169424</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0342774439510301</v>
+        <v>0.03242203449060762</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03256250111973315</v>
+        <v>0.03352040719508452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02339710467919435</v>
+        <v>0.02442834007518134</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01638116031986402</v>
+        <v>0.01423253069868311</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01803987739467787</v>
+        <v>0.01787764685120291</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01010446869384561</v>
+        <v>0.01014926408015824</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008391861876663274</v>
+        <v>0.008172380670091541</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00364311889928091</v>
+        <v>0.00368548373046139</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03038739359495512</v>
+        <v>0.02969407111348766</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02594296192616839</v>
+        <v>0.02547589812894203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01910594321273564</v>
+        <v>0.01872384427977569</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01161085002191369</v>
+        <v>0.01136580278149011</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06801669113352521</v>
+        <v>0.06552926795911054</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06664401850651563</v>
+        <v>0.06792064356861154</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05441937905919348</v>
+        <v>0.05591003164602975</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0633365555858138</v>
+        <v>0.06016670180656392</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04877379129687974</v>
+        <v>0.04685924187513043</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03640319216135996</v>
+        <v>0.03619998949200418</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03018422354517426</v>
+        <v>0.030885835774578</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02182999329890533</v>
+        <v>0.02482726813122857</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05110813482947919</v>
+        <v>0.05224671324692565</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04927177660907929</v>
+        <v>0.04799388810649353</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0391486305413135</v>
+        <v>0.0380120902428292</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03547192427419028</v>
+        <v>0.03389153085619106</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03028080046804897</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01910114621808853</v>
+        <v>0.01910114621808852</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01945002597090942</v>
@@ -957,7 +957,7 @@
         <v>0.01695700921735896</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.01658954910147446</v>
+        <v>0.01658954910147445</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02133896994168354</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01337044846089805</v>
+        <v>0.01299783748599055</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01272034718183057</v>
+        <v>0.01290035397311588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01893324352399641</v>
+        <v>0.01891120173171099</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01013572917010778</v>
+        <v>0.009510004576513258</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01008849904191798</v>
+        <v>0.01069181023054055</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008230726695705704</v>
+        <v>0.009417452319189792</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008121491896189719</v>
+        <v>0.008879578066549591</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.009244813371066538</v>
+        <v>0.009669539609920641</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0146658665680563</v>
+        <v>0.01483873611601029</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01253925695425334</v>
+        <v>0.01211117058246113</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01680378617347457</v>
+        <v>0.01655646836437068</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01176808538168894</v>
+        <v>0.01180018077326562</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03848775426915706</v>
+        <v>0.03913722763076333</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03829357130481575</v>
+        <v>0.03902561885279824</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04715944319035459</v>
+        <v>0.04780454171190011</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03556027076844108</v>
+        <v>0.03382224251520133</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03196736861675042</v>
+        <v>0.0346081445349322</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02861217352652146</v>
+        <v>0.02944098880403498</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03048181807537958</v>
+        <v>0.0312059193578549</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0276425824117807</v>
+        <v>0.02741899397338496</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03059537365805411</v>
+        <v>0.03050877422141032</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02879270138389904</v>
+        <v>0.02816521443540313</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03443333242051397</v>
+        <v>0.03380932542530445</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02621651680321077</v>
+        <v>0.02683156753767181</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.01928847115011036</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03215123996094076</v>
+        <v>0.03215123996094074</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01874342969057755</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02330495590347866</v>
+        <v>0.02319031399269345</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006370503778315423</v>
+        <v>0.006552519068869713</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01058908595378243</v>
+        <v>0.009469764308122892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02064732825495389</v>
+        <v>0.01909544567044343</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.00970770765295959</v>
+        <v>0.00952602726946181</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01902277324166502</v>
+        <v>0.01811218062260869</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.006761635889814065</v>
+        <v>0.007456910330815499</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01079191423122986</v>
+        <v>0.01038851963581114</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01922283479944783</v>
+        <v>0.01977808328767374</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0150226169791891</v>
+        <v>0.01547990885392057</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01097441886819168</v>
+        <v>0.01177623132125705</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01718052485000571</v>
+        <v>0.01739159278700582</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05762256265619153</v>
+        <v>0.05860201807712652</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02474312381675144</v>
+        <v>0.02442953901494528</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03414787401447905</v>
+        <v>0.03341122445198016</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.049428282116493</v>
+        <v>0.05007075366645562</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03438538805368774</v>
+        <v>0.03436055332082669</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05129225713584219</v>
+        <v>0.04870848813884966</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02752425834932164</v>
+        <v>0.02862623385893839</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02802525912243102</v>
+        <v>0.02753019440658369</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0400302823947445</v>
+        <v>0.04123831634090987</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03278132383210525</v>
+        <v>0.03395857464820556</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02656631148443406</v>
+        <v>0.02717896039550384</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03375324130539909</v>
+        <v>0.0342659329695636</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01175079294110828</v>
+        <v>0.01154320567519767</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002522497953054411</v>
+        <v>0.002541191818890834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002176450655244459</v>
+        <v>0.002094653703328984</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00646054534280451</v>
+        <v>0.005906967228985584</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01249500502133328</v>
+        <v>0.01165179601827954</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01667625284824462</v>
+        <v>0.01706724591198478</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01497188350730972</v>
+        <v>0.01480770734179763</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01502794198842538</v>
+        <v>0.01471717412917392</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01471054935923377</v>
+        <v>0.01542042358383187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01340588965657316</v>
+        <v>0.0121571446523332</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01062211854935659</v>
+        <v>0.01085902252858462</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01272868268658652</v>
+        <v>0.01253184714038399</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04420804064978522</v>
+        <v>0.04505222595347783</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02558578281122582</v>
+        <v>0.02533335845525641</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01966314190551256</v>
+        <v>0.01975904599812634</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02417841646406261</v>
+        <v>0.0225417339657767</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04301512637785454</v>
+        <v>0.04398853148707832</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05097174264139586</v>
+        <v>0.0520122617421435</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04975528228243543</v>
+        <v>0.04934456993753537</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03505425414874141</v>
+        <v>0.03423303410481767</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03817067624656295</v>
+        <v>0.03836710405178652</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03339715664111663</v>
+        <v>0.03226835671297233</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03045102934755425</v>
+        <v>0.03039250164233033</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02541727370732394</v>
+        <v>0.02544669520994242</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006060600097171652</v>
+        <v>0.006059907883244718</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01278121353531263</v>
+        <v>0.01272177326278531</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.005523553682172738</v>
+        <v>0.005256601734960862</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.008661160913550849</v>
+        <v>0.008479536653021511</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01400175870245663</v>
+        <v>0.01301490518354939</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01991423683099876</v>
+        <v>0.02136671639485364</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.025879601830192</v>
+        <v>0.02526138755718387</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03101943669931414</v>
+        <v>0.03017615481838496</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01277789591274456</v>
+        <v>0.01184156771063625</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01962000561240638</v>
+        <v>0.01956808717205694</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0191161134632079</v>
+        <v>0.0177983844705227</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02260272761647006</v>
+        <v>0.02278296329306992</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03474089362698084</v>
+        <v>0.03528831609696646</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05089626550407964</v>
+        <v>0.04852944224995081</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03409824374120644</v>
+        <v>0.030976667268248</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03009467874693801</v>
+        <v>0.02902425730090897</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04996183909512537</v>
+        <v>0.04809730437089824</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0594183038924884</v>
+        <v>0.05841294544065553</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0708170128020723</v>
+        <v>0.06741826140304426</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0589817426207792</v>
+        <v>0.05777772374755746</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0347363640612424</v>
+        <v>0.03432073110160169</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04760423971006168</v>
+        <v>0.04656207943052434</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04399043611540648</v>
+        <v>0.04410628337643214</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.03992090502196179</v>
+        <v>0.04073441503429037</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01118936619637077</v>
+        <v>0.01201362170437184</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01650157864412403</v>
+        <v>0.01634761174325125</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01563245554361293</v>
+        <v>0.0158200556677269</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01847920819459963</v>
+        <v>0.0181482392417824</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04368896908294011</v>
+        <v>0.04358920924098714</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03004901940194758</v>
+        <v>0.02952967598933206</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03179639344299854</v>
+        <v>0.0318303095947905</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04696711253646906</v>
+        <v>0.04757387478590581</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03404757542819291</v>
+        <v>0.03600226393628255</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02904597488387352</v>
+        <v>0.02806053373056443</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03035446536255152</v>
+        <v>0.02999092688604404</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03946898193580409</v>
+        <v>0.03981944652805929</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06149771232616809</v>
+        <v>0.06113606871119733</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06279624915183606</v>
+        <v>0.06372046826016231</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05388588934569574</v>
+        <v>0.05464596281318898</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05085158392162539</v>
+        <v>0.05140928353088531</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1017169440373229</v>
+        <v>0.1034388416004287</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07688915717331006</v>
+        <v>0.07565080181171709</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08212855520571091</v>
+        <v>0.08028581014035964</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08038634384402381</v>
+        <v>0.08017002833889104</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07648002953426226</v>
+        <v>0.07670177924799322</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.06302301348605299</v>
+        <v>0.06263704892606482</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06529301192797043</v>
+        <v>0.0664199956102581</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06378741815778669</v>
+        <v>0.06195929738098661</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03118408752751014</v>
+        <v>0.03171136369708693</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02335823928493855</v>
+        <v>0.02363167627978024</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02121575942934481</v>
+        <v>0.02125897502094919</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01743797422362117</v>
+        <v>0.01840898725901255</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02197660683752431</v>
+        <v>0.02265076232825085</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02208047845969621</v>
+        <v>0.02273191741739945</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01905587293413586</v>
+        <v>0.01973630382407751</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0222571242350309</v>
+        <v>0.02274386829547191</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02844166590762844</v>
+        <v>0.02825312315176922</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02422050038214886</v>
+        <v>0.02427170256393837</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02192673629698776</v>
+        <v>0.0218635767781966</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02140497594285365</v>
+        <v>0.02154216975164238</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04518144908536175</v>
+        <v>0.04548993550447905</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03477514812714298</v>
+        <v>0.03489191567410645</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03228404875620152</v>
+        <v>0.03238523520950426</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0296679988034881</v>
+        <v>0.02974649709758256</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03353484582512958</v>
+        <v>0.03440526181672535</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03409911924034233</v>
+        <v>0.03352070841958723</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03072424131167454</v>
+        <v>0.03050520321670615</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03154894734999247</v>
+        <v>0.032289632170013</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03768988355623194</v>
+        <v>0.03733294285164939</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.03221545839491034</v>
+        <v>0.0323564847975647</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02921648724135961</v>
+        <v>0.02958326278415803</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02876579193397492</v>
+        <v>0.02903366475764415</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23650</v>
+        <v>23126</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13178</v>
+        <v>13160</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10704</v>
+        <v>10568</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1506</v>
+        <v>1493</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5625</v>
+        <v>5093</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4202</v>
+        <v>4005</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1794</v>
+        <v>1897</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3421</v>
+        <v>2373</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>32765</v>
+        <v>33102</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>20073</v>
+        <v>20571</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13483</v>
+        <v>14517</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7713</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47448</v>
+        <v>46880</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>31261</v>
+        <v>31839</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27029</v>
+        <v>27721</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>24207</v>
+        <v>23834</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18087</v>
+        <v>18892</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17139</v>
+        <v>16293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10894</v>
+        <v>10854</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>28065</v>
+        <v>24368</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>59495</v>
+        <v>59775</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>42440</v>
+        <v>41252</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>33050</v>
+        <v>34710</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>35956</v>
+        <v>39197</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>25211</v>
+        <v>23846</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22373</v>
+        <v>23031</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13816</v>
+        <v>14425</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7812</v>
+        <v>6787</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11284</v>
+        <v>11182</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6166</v>
+        <v>6194</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4729</v>
+        <v>4605</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1826</v>
+        <v>1847</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>41357</v>
+        <v>40413</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>33657</v>
+        <v>33051</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>22049</v>
+        <v>21608</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>11355</v>
+        <v>11115</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>50026</v>
+        <v>48196</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45790</v>
+        <v>46667</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32134</v>
+        <v>33015</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30205</v>
+        <v>28693</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30508</v>
+        <v>29310</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22215</v>
+        <v>22091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17010</v>
+        <v>17406</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10939</v>
+        <v>12441</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>69557</v>
+        <v>71107</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>63922</v>
+        <v>62264</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45179</v>
+        <v>43867</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>34691</v>
+        <v>33145</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8539</v>
+        <v>8301</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8674</v>
+        <v>8796</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12668</v>
+        <v>12653</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6293</v>
+        <v>5904</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6958</v>
+        <v>7375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5851</v>
+        <v>6694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5371</v>
+        <v>5873</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5752</v>
+        <v>6016</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19482</v>
+        <v>19712</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>17464</v>
+        <v>16867</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>22357</v>
+        <v>22028</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>14627</v>
+        <v>14667</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24581</v>
+        <v>24996</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26111</v>
+        <v>26610</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>31554</v>
+        <v>31986</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22077</v>
+        <v>20998</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22049</v>
+        <v>23871</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20339</v>
+        <v>20928</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20160</v>
+        <v>20639</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17198</v>
+        <v>17058</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>40643</v>
+        <v>40528</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>40100</v>
+        <v>39226</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>45813</v>
+        <v>44983</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>32587</v>
+        <v>33351</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12099</v>
+        <v>12039</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3915</v>
+        <v>4027</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6841</v>
+        <v>6118</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14466</v>
+        <v>13379</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5006</v>
+        <v>4912</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11722</v>
+        <v>11161</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4389</v>
+        <v>4840</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7952</v>
+        <v>7655</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>19892</v>
+        <v>20466</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>18490</v>
+        <v>19053</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>14213</v>
+        <v>15252</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>24697</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29915</v>
+        <v>30423</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15208</v>
+        <v>15015</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22061</v>
+        <v>21585</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>34630</v>
+        <v>35080</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17731</v>
+        <v>17718</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>31606</v>
+        <v>30014</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17865</v>
+        <v>18581</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20651</v>
+        <v>20287</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>41423</v>
+        <v>42673</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>40348</v>
+        <v>41797</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>34407</v>
+        <v>35200</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>48520</v>
+        <v>49257</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4544</v>
+        <v>4464</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1040</v>
+        <v>1001</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3937</v>
+        <v>3599</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5048</v>
+        <v>4707</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>7468</v>
+        <v>7643</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>7439</v>
+        <v>7357</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>9150</v>
+        <v>8961</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>11632</v>
+        <v>12193</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>11760</v>
+        <v>10665</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>10354</v>
+        <v>10585</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>15506</v>
+        <v>15266</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>17096</v>
+        <v>17422</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10987</v>
+        <v>10879</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9397</v>
+        <v>9443</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14733</v>
+        <v>13736</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17378</v>
+        <v>17771</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>22825</v>
+        <v>23291</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>24721</v>
+        <v>24517</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>21343</v>
+        <v>20843</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>30181</v>
+        <v>30337</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>29297</v>
+        <v>28307</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>29683</v>
+        <v>29626</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>30963</v>
+        <v>30999</v>
       </c>
     </row>
     <row r="24">
@@ -2914,37 +2914,37 @@
         <v>1773</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3959</v>
+        <v>3941</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1847</v>
+        <v>1757</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3526</v>
+        <v>3452</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4802</v>
+        <v>4463</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>7050</v>
+        <v>7564</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>9776</v>
+        <v>9543</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>13623</v>
+        <v>13252</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>8121</v>
+        <v>7526</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>13023</v>
+        <v>12989</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>13612</v>
+        <v>12674</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>19127</v>
+        <v>19280</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10165</v>
+        <v>10325</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>15767</v>
+        <v>15034</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11400</v>
+        <v>10356</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12251</v>
+        <v>11815</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17134</v>
+        <v>16494</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>21034</v>
+        <v>20678</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>26752</v>
+        <v>25468</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>25903</v>
+        <v>25374</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>22076</v>
+        <v>21811</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>31599</v>
+        <v>30907</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>31325</v>
+        <v>31408</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>33783</v>
+        <v>34471</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2348</v>
+        <v>2521</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4123</v>
+        <v>4084</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4018</v>
+        <v>4066</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>5732</v>
+        <v>5630</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>14588</v>
+        <v>14555</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>11688</v>
+        <v>11486</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>12724</v>
+        <v>12738</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>21821</v>
+        <v>22103</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>18515</v>
+        <v>19578</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>18555</v>
+        <v>17926</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>19948</v>
+        <v>19709</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>30581</v>
+        <v>30852</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>12907</v>
+        <v>12831</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>15690</v>
+        <v>15921</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>13849</v>
+        <v>14044</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>15774</v>
+        <v>15947</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>33964</v>
+        <v>34539</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>29908</v>
+        <v>29427</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>32865</v>
+        <v>32128</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>37348</v>
+        <v>37248</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>41589</v>
+        <v>41710</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>40261</v>
+        <v>40014</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>42908</v>
+        <v>43649</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>49423</v>
+        <v>48006</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>102176</v>
+        <v>103904</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>80044</v>
+        <v>80981</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>72014</v>
+        <v>72160</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>61604</v>
+        <v>65035</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>74263</v>
+        <v>76541</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>78569</v>
+        <v>80887</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>67544</v>
+        <v>69956</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>83136</v>
+        <v>84954</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>189300</v>
+        <v>188045</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>169182</v>
+        <v>169540</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>152147</v>
+        <v>151709</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>155572</v>
+        <v>156569</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>148039</v>
+        <v>149050</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>119167</v>
+        <v>119567</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>109583</v>
+        <v>109927</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>104810</v>
+        <v>105087</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>113321</v>
+        <v>116262</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>121335</v>
+        <v>119277</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>108903</v>
+        <v>108127</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>117843</v>
+        <v>120610</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>250854</v>
+        <v>248478</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>225028</v>
+        <v>226013</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>202730</v>
+        <v>205275</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>209070</v>
+        <v>211017</v>
       </c>
     </row>
     <row r="36">
